--- a/data/trans_dic/P24_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia</t>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,62%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,31%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,2</t>
+          <t>0,97; 9,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,84</t>
+          <t>5,5; 16,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 12,22</t>
+          <t>5,81; 14,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 11,93</t>
+          <t>5,87; 12,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,43</t>
+          <t>11,2; 27,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 12,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 14,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 14,5</t>
+          <t>2,41; 11,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 17,56</t>
+          <t>6,25; 16,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 19,88</t>
+          <t>7,41; 14,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,18</t>
+          <t>11,08; 18,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,0</t>
+          <t>18,02; 35,44</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 14,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,58</t>
+          <t>2,44; 8,3</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 14,81</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 13,4</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 14,51</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>17,43; 29,61</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,19</t>
+          <t>2,19; 8,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,4</t>
+          <t>1,9; 6,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,41</t>
+          <t>3,77; 7,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,23</t>
+          <t>3,0; 6,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,73</t>
+          <t>4,62; 10,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,24</t>
+          <t>2,31; 6,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,21</t>
+          <t>5,93; 13,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,84</t>
+          <t>5,87; 10,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,13</t>
+          <t>4,16; 9,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,48</t>
+          <t>7,65; 13,81</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,04</t>
+          <t>2,91; 6,49</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 8,8</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 8,28</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 7,18</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>7,01; 11,4</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 8,73</t>
+          <t>0,53; 5,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,53</t>
+          <t>3,48; 13,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,47</t>
+          <t>3,0; 7,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,54</t>
+          <t>3,46; 7,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,8</t>
+          <t>3,23; 9,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,51</t>
+          <t>0,36; 3,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,25</t>
+          <t>1,16; 5,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 9,37</t>
+          <t>2,83; 7,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 6,18</t>
+          <t>1,95; 5,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,27</t>
+          <t>4,65; 11,82</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,56</t>
+          <t>0,82; 3,32</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 8,15</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 6,26</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 5,54</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 9,18</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,07</t>
+          <t>2,07; 5,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,78</t>
+          <t>2,5; 6,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,16</t>
+          <t>2,9; 7,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,73</t>
+          <t>6,75; 12,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,0</t>
+          <t>6,4; 9,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 8,54</t>
+          <t>5,14; 9,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,39</t>
+          <t>5,58; 11,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 5,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,98</t>
+          <t>6,74; 14,5</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 7,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 9,95</t>
+          <t>4,49; 6,93</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 7,25</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 8,65</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>7,88; 13,01</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 5,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 6,82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 7,22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 6,92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 10,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 7,28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 8,62</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 9,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 8,88</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 14,8</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 5,64</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 7,4</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 7,73</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 7,55</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 12,33</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,62%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8637</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34927</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>49211</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>60237</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>82882</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15739</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42014</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>67171</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>125253</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>158155</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>24376</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>76942</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>116382</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>185490</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>241036</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2198; 20678</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18564; 55977</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29620; 74107</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>41436; 89358</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48967; 120583</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6304; 31287</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25543; 68376</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45617; 91187</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>96319; 160288</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>112986; 222190</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11892; 40530</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>54274; 110526</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>86513; 150709</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>149630; 228533</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>185449; 315076</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28556</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32686</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>63015</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>71243</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>74824</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30335</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>81477</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95519</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>87503</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>112851</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>58891</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>114164</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>158534</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>158745</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>187675</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14257; 52424</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16774; 54767</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43337; 88829</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>47098; 98674</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48029; 107205</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16539; 49228</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>56837; 130543</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>69693; 126311</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>60865; 140338</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>81669; 147502</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>39699; 88603</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>79345; 162091</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>123992; 193411</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>122484; 217796</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>147891; 240432</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9265</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>44863</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39311</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54868</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7970</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19430</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>39592</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>35570</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>66336</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>17235</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>64293</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>78903</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>90437</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>111656</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2396; 23734</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23526; 90029</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24257; 60595</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36168; 79748</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26652; 78465</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1892; 19606</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8693; 37381</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25091; 62093</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21856; 55884</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>41448; 105283</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>8050; 32769</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>39570; 115949</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>56260; 106082</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>66527; 119953</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>77601; 157466</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>72228</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>57598</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39440</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>104040</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>164763</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>97653</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61081</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>98934</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>236991</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>155250</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>100522</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>202974</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43710; 120912</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>35407; 86200</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23775; 62987</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>73391; 140561</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>133683; 207311</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>70490; 134174</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40495; 86348</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>64647; 139037</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>188623; 291392</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>117527; 202314</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>73598; 133693</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>161251; 266239</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>118686</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>170074</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>190977</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>186347</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>307065</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>218806</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>240574</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>263363</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>248325</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>436276</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>337492</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>410649</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>454340</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>434673</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>743341</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>85057; 173466</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>130743; 226139</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>154028; 237291</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>149643; 230055</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>251929; 372291</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>180065; 262065</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>197789; 300462</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>217967; 309851</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>205314; 306266</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>366958; 524717</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>278662; 397488</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>345953; 503161</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>397975; 518065</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>372805; 511426</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>638985; 855114</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
